--- a/HeroInfo.xlsx
+++ b/HeroInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\CharacterInfo-API\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717E8FBE-477D-4690-AEFF-D808DC0BDC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7EADC-C35D-4CB7-944D-71E3CF7D4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FD8D03F1-1FE8-46BA-AC23-ADF5BD740510}"/>
   </bookViews>
@@ -15875,8 +15875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D4C7FC-FA91-42B3-AA6F-391D63A95CFC}">
   <dimension ref="A1:AX129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.69921875" defaultRowHeight="31.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/HeroInfo.xlsx
+++ b/HeroInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\CharacterInfo-API\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7EADC-C35D-4CB7-944D-71E3CF7D4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23403271-9E3B-4DBB-8E11-6A3C6F66237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FD8D03F1-1FE8-46BA-AC23-ADF5BD740510}"/>
   </bookViews>
@@ -15875,8 +15875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D4C7FC-FA91-42B3-AA6F-391D63A95CFC}">
   <dimension ref="A1:AX129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.69921875" defaultRowHeight="31.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/HeroInfo.xlsx
+++ b/HeroInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\CharacterInfo-API\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F19F28-891C-4B43-828F-D912B5D37033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B6C4D-AF2B-4C97-A069-320A7D0AD457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FD8D03F1-1FE8-46BA-AC23-ADF5BD740510}"/>
   </bookViews>
@@ -15870,7 +15870,7 @@
   <dimension ref="A1:AX129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.69921875" defaultRowHeight="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34743,8 +34743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72027DC5-B8EC-42EF-894E-197BBB0E4DA0}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40203,18 +40203,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40236,18 +40236,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941C4651-E5EB-484D-A6A5-7B086655368F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16AF6C23-AFEB-4EBD-9935-EABFBB818A19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941C4651-E5EB-484D-A6A5-7B086655368F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>